--- a/ExportServer.xlsx
+++ b/ExportServer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>LastUpdated</t>
   </si>
   <si>
-    <t>cd6irb7llgd7jb30k760</t>
+    <t>cd9qd2smr0dgea58oso0</t>
   </si>
   <si>
     <t>server1</t>
@@ -46,34 +46,73 @@
     <t>online</t>
   </si>
   <si>
-    <t>123.124.125.6.8</t>
-  </si>
-  <si>
-    <t>cd6j4qfllgd9nb28cdo0</t>
+    <t>192.168.1.4</t>
+  </si>
+  <si>
+    <t>cd9qdocmr0dgea58osog</t>
   </si>
   <si>
     <t>server2</t>
   </si>
   <si>
+    <t>192.168.1.5</t>
+  </si>
+  <si>
+    <t>cd9qdscmr0dgea58osp0</t>
+  </si>
+  <si>
+    <t>server3</t>
+  </si>
+  <si>
     <t>offline</t>
   </si>
   <si>
-    <t>123.124.125.6.9</t>
-  </si>
-  <si>
-    <t>cd9432vllgd62j0kjoi0</t>
-  </si>
-  <si>
-    <t>server3</t>
-  </si>
-  <si>
-    <t>cd95v4fllgd4gs60dpcg</t>
+    <t>192.168.1.6</t>
+  </si>
+  <si>
+    <t>cd9qgh4mr0dgea58ospg</t>
+  </si>
+  <si>
+    <t>server6</t>
+  </si>
+  <si>
+    <t>192.168.1.7</t>
+  </si>
+  <si>
+    <t>cdbp3ovllgd4a57etg40</t>
+  </si>
+  <si>
+    <t>server8</t>
+  </si>
+  <si>
+    <t>192.168.2.0</t>
+  </si>
+  <si>
+    <t>cd9qgtkmr0dgea58osq0</t>
   </si>
   <si>
     <t>server4</t>
   </si>
   <si>
-    <t>124.124.126.6.8</t>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>cd9qgvkmr0dgea58osqg</t>
+  </si>
+  <si>
+    <t>server5</t>
+  </si>
+  <si>
+    <t>192.168.2.2</t>
+  </si>
+  <si>
+    <t>cd9qh5cmr0dgea58osrg</t>
+  </si>
+  <si>
+    <t>server9</t>
+  </si>
+  <si>
+    <t>192.168.2.6</t>
   </si>
 </sst>
 </file>
@@ -426,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>44851.726259291456</v>
+        <v>44859.6084113003</v>
       </c>
       <c r="G2" s="1">
-        <v>44851.726259291456</v>
+        <v>44859.6084113003</v>
       </c>
     </row>
     <row r="3">
@@ -440,88 +479,157 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>44851.74029151602</v>
+        <v>44859.6084113003</v>
       </c>
       <c r="G3" s="1">
-        <v>44851.74029151602</v>
+        <v>44859.6084113003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>44855.57773107883</v>
+        <v>44859.6084113003</v>
       </c>
       <c r="G4" s="1">
-        <v>44855.57773107883</v>
+        <v>44859.6084113003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>44855.66668768886</v>
+        <v>44859.6084113003</v>
       </c>
       <c r="G5" s="1">
-        <v>44855.66668768886</v>
+        <v>44859.6084113003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" s="1">
+        <v>44859.608375018586</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44859.608375018586</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44855.717692584454</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44855.717692584454</v>
+      <c r="F7" s="1">
+        <v>44859.6084113003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44859.6084113003</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44859.6084113003</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44859.6084113003</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44859.6084113003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44859.6084113003</v>
       </c>
     </row>
   </sheetData>

--- a/ExportServer.xlsx
+++ b/ExportServer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -25,10 +25,13 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Uptime</t>
+  </si>
+  <si>
     <t>Ipv4</t>
   </si>
   <si>
-    <t>User</t>
+    <t>IdUserManager</t>
   </si>
   <si>
     <t>CreatedTime</t>
@@ -37,7 +40,28 @@
     <t>LastUpdated</t>
   </si>
   <si>
-    <t>cd9qd2smr0dgea58oso0</t>
+    <t>cddccm4mr0dl684o19ug</t>
+  </si>
+  <si>
+    <t>server2</t>
+  </si>
+  <si>
+    <t>ofline</t>
+  </si>
+  <si>
+    <t>192.168.2.10</t>
+  </si>
+  <si>
+    <t>cddccpkmr0dl684o19v0</t>
+  </si>
+  <si>
+    <t>server6</t>
+  </si>
+  <si>
+    <t>192.168.2.0</t>
+  </si>
+  <si>
+    <t>cddcchsmr0dl684o19u0</t>
   </si>
   <si>
     <t>server1</t>
@@ -46,73 +70,7 @@
     <t>online</t>
   </si>
   <si>
-    <t>192.168.1.4</t>
-  </si>
-  <si>
-    <t>cd9qdocmr0dgea58osog</t>
-  </si>
-  <si>
-    <t>server2</t>
-  </si>
-  <si>
-    <t>192.168.1.5</t>
-  </si>
-  <si>
-    <t>cd9qdscmr0dgea58osp0</t>
-  </si>
-  <si>
-    <t>server3</t>
-  </si>
-  <si>
-    <t>offline</t>
-  </si>
-  <si>
-    <t>192.168.1.6</t>
-  </si>
-  <si>
-    <t>cd9qgh4mr0dgea58ospg</t>
-  </si>
-  <si>
-    <t>server6</t>
-  </si>
-  <si>
-    <t>192.168.1.7</t>
-  </si>
-  <si>
-    <t>cdbp3ovllgd4a57etg40</t>
-  </si>
-  <si>
-    <t>server8</t>
-  </si>
-  <si>
-    <t>192.168.2.0</t>
-  </si>
-  <si>
-    <t>cd9qgtkmr0dgea58osq0</t>
-  </si>
-  <si>
-    <t>server4</t>
-  </si>
-  <si>
-    <t>192.168.2.1</t>
-  </si>
-  <si>
-    <t>cd9qgvkmr0dgea58osqg</t>
-  </si>
-  <si>
-    <t>server5</t>
-  </si>
-  <si>
-    <t>192.168.2.2</t>
-  </si>
-  <si>
-    <t>cd9qh5cmr0dgea58osrg</t>
-  </si>
-  <si>
-    <t>server9</t>
-  </si>
-  <si>
-    <t>192.168.2.6</t>
+    <t>192.168.2.14</t>
   </si>
 </sst>
 </file>
@@ -447,189 +405,86 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="D2">
+        <v>1456.66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>44859.6084113003</v>
-      </c>
       <c r="G2" s="1">
-        <v>44859.6084113003</v>
+        <v>44862.03935544258</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44862.03935544258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>56.66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>44859.6084113003</v>
-      </c>
       <c r="G3" s="1">
-        <v>44859.6084113003</v>
+        <v>44862.039517026664</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44862.039517026664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>1485.66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>44859.6084113003</v>
-      </c>
       <c r="G4" s="1">
-        <v>44859.6084113003</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44859.6084113003</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44859.6084113003</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44859.608375018586</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44859.608375018586</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44859.6084113003</v>
-      </c>
-      <c r="G7" s="1">
-        <v>44859.6084113003</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44859.6084113003</v>
-      </c>
-      <c r="G8" s="1">
-        <v>44859.6084113003</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>44859.6084113003</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44859.6084113003</v>
+        <v>44862.03916638875</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44862.03916638875</v>
       </c>
     </row>
   </sheetData>

--- a/ExportServer.xlsx
+++ b/ExportServer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -40,37 +40,82 @@
     <t>LastUpdated</t>
   </si>
   <si>
-    <t>cddccm4mr0dl684o19ug</t>
+    <t>cd9s8a4mr0dl255231j0</t>
+  </si>
+  <si>
+    <t>server8</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>192.168.2.0</t>
+  </si>
+  <si>
+    <t>cd9qgtkmr0dgea58osq0</t>
+  </si>
+  <si>
+    <t>server4</t>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>cd9qd2smr0dgea58oso0</t>
+  </si>
+  <si>
+    <t>server1</t>
+  </si>
+  <si>
+    <t>192.168.2.14</t>
+  </si>
+  <si>
+    <t>cd9qdscmr0dgea58osp0</t>
+  </si>
+  <si>
+    <t>server3</t>
+  </si>
+  <si>
+    <t>192.168.2.16</t>
+  </si>
+  <si>
+    <t>cd9qgvkmr0dgea58osqg</t>
+  </si>
+  <si>
+    <t>server5</t>
+  </si>
+  <si>
+    <t>192.168.2.2</t>
+  </si>
+  <si>
+    <t>cd9qdocmr0dgea58osog</t>
   </si>
   <si>
     <t>server2</t>
   </si>
   <si>
-    <t>ofline</t>
-  </si>
-  <si>
-    <t>192.168.2.10</t>
-  </si>
-  <si>
-    <t>cddccpkmr0dl684o19v0</t>
+    <t>192.168.2.5</t>
+  </si>
+  <si>
+    <t>cd9qh5cmr0dgea58osrg</t>
+  </si>
+  <si>
+    <t>server9</t>
+  </si>
+  <si>
+    <t>192.168.2.6</t>
+  </si>
+  <si>
+    <t>cd9qgh4mr0dgea58ospg</t>
   </si>
   <si>
     <t>server6</t>
   </si>
   <si>
-    <t>192.168.2.0</t>
-  </si>
-  <si>
-    <t>cddcchsmr0dl684o19u0</t>
-  </si>
-  <si>
-    <t>server1</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>192.168.2.14</t>
+    <t>192.168.2.7</t>
   </si>
 </sst>
 </file>
@@ -420,19 +465,19 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1456.66</v>
+        <v>1234.678</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>44862.03935544258</v>
+        <v>44862.537978019885</v>
       </c>
       <c r="H2" s="1">
-        <v>44862.03935544258</v>
+        <v>44862.537978019885</v>
       </c>
     </row>
     <row r="3">
@@ -443,48 +488,178 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>56.66</v>
+        <v>1234.678</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>44862.039517026664</v>
+        <v>44862.537978019885</v>
       </c>
       <c r="H3" s="1">
-        <v>44862.039517026664</v>
+        <v>44862.537978019885</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1485.66</v>
+        <v>1234.678</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>44862.03916638875</v>
+        <v>44862.537978019885</v>
       </c>
       <c r="H4" s="1">
-        <v>44862.03916638875</v>
+        <v>44862.537978019885</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>124.678</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44862.537978019885</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44862.537978019885</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>1234.678</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44862.537978019885</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44862.537978019885</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>124.678</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44862.537978019885</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44862.537978019885</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1234.678</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44862.537978019885</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44862.537978019885</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1234.678</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44862.537978019885</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44862.537978019885</v>
       </c>
     </row>
   </sheetData>

--- a/ExportServer.xlsx
+++ b/ExportServer.xlsx
@@ -40,7 +40,7 @@
     <t>LastUpdated</t>
   </si>
   <si>
-    <t>cd9s8a4mr0dl255231j0</t>
+    <t>cddom9vllgd5mb28oai0</t>
   </si>
   <si>
     <t>server8</t>
@@ -465,19 +465,19 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1234.678</v>
+        <v>134.575</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622495300275</v>
       </c>
       <c r="H2" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622495300275</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
       <c r="H3" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
     </row>
     <row r="4">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
       <c r="H4" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
     </row>
     <row r="5">
@@ -552,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
       <c r="H5" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
     </row>
     <row r="6">
@@ -578,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
       <c r="H6" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
     </row>
     <row r="7">
@@ -604,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
       <c r="H7" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
     </row>
     <row r="8">
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
       <c r="H8" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
       <c r="H9" s="1">
-        <v>44862.537978019885</v>
+        <v>44862.622535126204</v>
       </c>
     </row>
   </sheetData>
